--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_28_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_28_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>138966.6888098614</v>
+        <v>23995143.48926651</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>138966.6888098614</v>
+        <v>23995143.48926651</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>69413.0464566391</v>
+        <v>8695174.767404094</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>69413.0464566391</v>
+        <v>8695174.767404094</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1608179223.603907</v>
+        <v>55236510.61648235</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12060.81590376468</v>
+        <v>1175656.872658244</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24022.25118328442</v>
+        <v>2331537.001091743</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35983.68646280414</v>
+        <v>3487417.129525241</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>49686.25717752912</v>
+        <v>4451643.742689603</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>61495.53873986466</v>
+        <v>5584925.535937719</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>73404.63347564529</v>
+        <v>6746811.318265902</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>85317.08821142591</v>
+        <v>7909365.740594083</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>97229.54294720653</v>
+        <v>9071920.162922261</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>110936.3136619315</v>
+        <v>10036982.57608661</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>122353.5355833115</v>
+        <v>11210843.83281833</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>133743.4384079388</v>
+        <v>12436594.12098296</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>145156.6509408256</v>
+        <v>13666983.04109125</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>156569.8634737124</v>
+        <v>14897371.96119954</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>169927.823896697</v>
+        <v>15917438.56630756</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>189575.3080304415</v>
+        <v>16303646.25493118</v>
       </c>
     </row>
   </sheetData>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
